--- a/excel/por manual/local/uruguay_movistar.xlsx
+++ b/excel/por manual/local/uruguay_movistar.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>COMM</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve">GMB </t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>HOST</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -14539,7 +14539,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -15728,7 +15728,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -16876,7 +16876,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -16958,7 +16958,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -17614,7 +17614,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -19705,7 +19705,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19746,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -20074,7 +20074,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -20771,7 +20771,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -20894,7 +20894,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21017,7 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -21054,7 +21054,7 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -21259,7 +21259,7 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>HOST</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -21505,7 +21505,7 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>ERR_NAME_NOT_RESOLVED</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -21587,7 +21587,7 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -21669,7 +21669,7 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -22202,7 +22202,7 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -22735,7 +22735,7 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -23022,7 +23022,7 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -23350,7 +23350,7 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -23473,7 +23473,7 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -23678,7 +23678,7 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -24047,7 +24047,7 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -24744,7 +24744,7 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -24785,7 +24785,7 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -24826,7 +24826,7 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -24990,7 +24990,7 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -25154,7 +25154,7 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -25892,7 +25892,7 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>GOVT</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -26876,7 +26876,7 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27245,7 +27245,7 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27286,7 +27286,7 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27409,7 +27409,7 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27450,7 +27450,7 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27491,7 +27491,7 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
